--- a/dia_17/Relatorio_Financeiro.xlsx
+++ b/dia_17/Relatorio_Financeiro.xlsx
@@ -457,11 +457,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.4255</v>
+        <v>5.4073</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>04/01/2026 21:51</t>
+          <t>05/01/2026 22:59</t>
         </is>
       </c>
     </row>
@@ -472,11 +472,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.34518</v>
+        <v>6.33312</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>04/01/2026 21:51</t>
+          <t>05/01/2026 22:59</t>
         </is>
       </c>
     </row>
@@ -487,11 +487,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500748</v>
+        <v>507796</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>04/01/2026 21:51</t>
+          <t>05/01/2026 22:59</t>
         </is>
       </c>
     </row>
